--- a/medicine/Enfance/Kodomo/Kodomo.xlsx
+++ b/medicine/Enfance/Kodomo/Kodomo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un kodomo (子供?, litt. « enfant ») est un manga ou un anime destinés plus particulièrement aux enfants.
 </t>
@@ -511,9 +523,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Au Japon, les kodomo[l 1] manga[l 2] et kodomo anime[l 3] sont classés en trois sous-groupes[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Au Japon, les kodomo[l 1] manga[l 2] et kodomo anime[l 3] sont classés en trois sous-groupes :
 nyūyōji[l 4] ou yōji[l 5], pour les tout-petits de 0 à 8 ans ;
 jōji[l 6], pour les jeunes filles ;
 danji[l 7], pour les jeunes garçons.</t>
@@ -544,11 +558,13 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Doraemon, une série de mangas créée par Fujiko Fujio[2]
-Hamtaro, un manga pour enfant dont l'auteur est Ritsuko Kawai[2]
-Araiguma Rascal, une série d'animation japonaise produite par le studio Nippon Animation, spécialisé dans la création d'anime pour enfants[3]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Doraemon, une série de mangas créée par Fujiko Fujio
+Hamtaro, un manga pour enfant dont l'auteur est Ritsuko Kawai
+Araiguma Rascal, une série d'animation japonaise produite par le studio Nippon Animation, spécialisé dans la création d'anime pour enfants
 Tohu Bohu, manga créé par Shinya Komatsu.
 Nekojima, l'île des chats, manga créé par Sato horokura.</t>
         </is>
